--- a/data/pca/factorExposure/factorExposure_2011-12-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01161100875402789</v>
+        <v>0.01166055523163206</v>
       </c>
       <c r="C2">
-        <v>-0.03010625893129686</v>
+        <v>0.02453255548134478</v>
       </c>
       <c r="D2">
-        <v>-0.02103976265223265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02295685927762145</v>
+      </c>
+      <c r="E2">
+        <v>-0.00827396047366569</v>
+      </c>
+      <c r="F2">
+        <v>0.02612338090163674</v>
+      </c>
+      <c r="G2">
+        <v>-0.002026648407499815</v>
+      </c>
+      <c r="H2">
+        <v>-0.02749159696081186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07496550348758792</v>
+        <v>0.08763700783278974</v>
       </c>
       <c r="C4">
-        <v>-0.04976128525984198</v>
+        <v>0.03348571663591842</v>
       </c>
       <c r="D4">
-        <v>-0.08299506411003571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0704272443999414</v>
+      </c>
+      <c r="E4">
+        <v>-0.007518509904930319</v>
+      </c>
+      <c r="F4">
+        <v>0.04235773407534763</v>
+      </c>
+      <c r="G4">
+        <v>0.01141750092168425</v>
+      </c>
+      <c r="H4">
+        <v>0.04047033642447646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1111358144259367</v>
+        <v>0.1228758619412688</v>
       </c>
       <c r="C6">
-        <v>-0.04749218470952619</v>
+        <v>0.03294181808607412</v>
       </c>
       <c r="D6">
-        <v>-0.009155023445330314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01196390198136927</v>
+      </c>
+      <c r="E6">
+        <v>0.02225880481077087</v>
+      </c>
+      <c r="F6">
+        <v>0.0545950745116414</v>
+      </c>
+      <c r="G6">
+        <v>0.0327830020316076</v>
+      </c>
+      <c r="H6">
+        <v>-0.1064139234428736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05549168000841279</v>
+        <v>0.06509539584056781</v>
       </c>
       <c r="C7">
-        <v>-0.0265377123283502</v>
+        <v>0.01259395822703224</v>
       </c>
       <c r="D7">
-        <v>-0.03432946453850591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04981737637587929</v>
+      </c>
+      <c r="E7">
+        <v>-0.0289968587515963</v>
+      </c>
+      <c r="F7">
+        <v>0.0462245578703156</v>
+      </c>
+      <c r="G7">
+        <v>-0.03311134088896057</v>
+      </c>
+      <c r="H7">
+        <v>0.01095920017739246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04094827629539129</v>
+        <v>0.04431627970089073</v>
       </c>
       <c r="C8">
-        <v>-0.01393827243489518</v>
+        <v>0.009945106099603793</v>
       </c>
       <c r="D8">
-        <v>-0.05698159842994575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02322218441279491</v>
+      </c>
+      <c r="E8">
+        <v>-0.01290708783538123</v>
+      </c>
+      <c r="F8">
+        <v>0.0684573473420267</v>
+      </c>
+      <c r="G8">
+        <v>0.05076778455686268</v>
+      </c>
+      <c r="H8">
+        <v>-0.01255342444034781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07099330815933984</v>
+        <v>0.08006202322292175</v>
       </c>
       <c r="C9">
-        <v>-0.03789019486152911</v>
+        <v>0.02210984221247354</v>
       </c>
       <c r="D9">
-        <v>-0.07379630636871086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06428420540203049</v>
+      </c>
+      <c r="E9">
+        <v>-0.02572625922662079</v>
+      </c>
+      <c r="F9">
+        <v>0.0330702815659345</v>
+      </c>
+      <c r="G9">
+        <v>0.02251004211608678</v>
+      </c>
+      <c r="H9">
+        <v>0.04824065913521911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0310746251548802</v>
+        <v>0.04476487738409992</v>
       </c>
       <c r="C10">
-        <v>-0.03206988701287658</v>
+        <v>0.0631118057074805</v>
       </c>
       <c r="D10">
-        <v>0.1755584522325435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1735294414320411</v>
+      </c>
+      <c r="E10">
+        <v>-0.0416998226376731</v>
+      </c>
+      <c r="F10">
+        <v>0.05328042641039828</v>
+      </c>
+      <c r="G10">
+        <v>-0.03099269054329282</v>
+      </c>
+      <c r="H10">
+        <v>-0.05329060371767333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07289346461036043</v>
+        <v>0.07712264707753622</v>
       </c>
       <c r="C11">
-        <v>-0.04062109553409981</v>
+        <v>0.01907855994341574</v>
       </c>
       <c r="D11">
-        <v>-0.05724284444176093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06596100650091472</v>
+      </c>
+      <c r="E11">
+        <v>0.00892554596519405</v>
+      </c>
+      <c r="F11">
+        <v>0.03634922207916255</v>
+      </c>
+      <c r="G11">
+        <v>0.02909468899760729</v>
+      </c>
+      <c r="H11">
+        <v>0.07168531470193659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0608368189815553</v>
+        <v>0.06963394716232658</v>
       </c>
       <c r="C12">
-        <v>-0.04969737678847429</v>
+        <v>0.03192572760415952</v>
       </c>
       <c r="D12">
-        <v>-0.04622292248008725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05017414768281514</v>
+      </c>
+      <c r="E12">
+        <v>-0.009244932317784876</v>
+      </c>
+      <c r="F12">
+        <v>0.02489648840632151</v>
+      </c>
+      <c r="G12">
+        <v>0.01501796202121734</v>
+      </c>
+      <c r="H12">
+        <v>0.03191913560588193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06781012313732181</v>
+        <v>0.0673284754772798</v>
       </c>
       <c r="C13">
-        <v>-0.03315188615882835</v>
+        <v>0.01640827350594942</v>
       </c>
       <c r="D13">
-        <v>-0.04567829403178705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03963599317550342</v>
+      </c>
+      <c r="E13">
+        <v>-0.01066784939183946</v>
+      </c>
+      <c r="F13">
+        <v>0.02519306442670875</v>
+      </c>
+      <c r="G13">
+        <v>0.004710881888617929</v>
+      </c>
+      <c r="H13">
+        <v>0.05355775195713944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03354080854464131</v>
+        <v>0.03943197482438043</v>
       </c>
       <c r="C14">
-        <v>-0.03166263473835929</v>
+        <v>0.02565633313370098</v>
       </c>
       <c r="D14">
-        <v>0.005928854527227388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01528805936198233</v>
+      </c>
+      <c r="E14">
+        <v>-0.02629906774684813</v>
+      </c>
+      <c r="F14">
+        <v>0.01866249080856977</v>
+      </c>
+      <c r="G14">
+        <v>0.02557430504101998</v>
+      </c>
+      <c r="H14">
+        <v>0.0522584935146439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04221961904421435</v>
+        <v>0.04118628557888564</v>
       </c>
       <c r="C15">
-        <v>-0.008333612956864057</v>
+        <v>0.001654867084484899</v>
       </c>
       <c r="D15">
-        <v>-0.01869564888874874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006871010316539433</v>
+      </c>
+      <c r="E15">
+        <v>-0.03551963411670908</v>
+      </c>
+      <c r="F15">
+        <v>0.005059020822271093</v>
+      </c>
+      <c r="G15">
+        <v>0.03344709685473569</v>
+      </c>
+      <c r="H15">
+        <v>0.02582761173409698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06074613462224232</v>
+        <v>0.0716523044646362</v>
       </c>
       <c r="C16">
-        <v>-0.03815717028367887</v>
+        <v>0.02217027184750934</v>
       </c>
       <c r="D16">
-        <v>-0.05195372433871685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06265409550316009</v>
+      </c>
+      <c r="E16">
+        <v>-0.002033224687596892</v>
+      </c>
+      <c r="F16">
+        <v>0.0314625559212539</v>
+      </c>
+      <c r="G16">
+        <v>0.01393469407318385</v>
+      </c>
+      <c r="H16">
+        <v>0.04841335219462638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06416769001298758</v>
+        <v>0.06269329859804303</v>
       </c>
       <c r="C20">
-        <v>-0.02389843221788276</v>
+        <v>0.005812401869539901</v>
       </c>
       <c r="D20">
-        <v>-0.04709037430885962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04099534713586894</v>
+      </c>
+      <c r="E20">
+        <v>-0.009188587190496754</v>
+      </c>
+      <c r="F20">
+        <v>0.03096196519326552</v>
+      </c>
+      <c r="G20">
+        <v>0.02422850128367957</v>
+      </c>
+      <c r="H20">
+        <v>0.04762374636155416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02831413713922406</v>
+        <v>0.02843715297105545</v>
       </c>
       <c r="C21">
-        <v>0.001306185691060138</v>
+        <v>-0.008980204673791481</v>
       </c>
       <c r="D21">
-        <v>-0.02037437062784574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02068564643397335</v>
+      </c>
+      <c r="E21">
+        <v>-0.03942597643941897</v>
+      </c>
+      <c r="F21">
+        <v>-0.002995111757627329</v>
+      </c>
+      <c r="G21">
+        <v>0.01048020133114425</v>
+      </c>
+      <c r="H21">
+        <v>-0.05069477442016963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07870631314339342</v>
+        <v>0.07132390419136167</v>
       </c>
       <c r="C22">
-        <v>-0.05922661774936482</v>
+        <v>0.0333557641640578</v>
       </c>
       <c r="D22">
-        <v>-0.1411067635066848</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.09892498326678668</v>
+      </c>
+      <c r="E22">
+        <v>-0.616577293687803</v>
+      </c>
+      <c r="F22">
+        <v>-0.06995419319065455</v>
+      </c>
+      <c r="G22">
+        <v>-0.1366593163006141</v>
+      </c>
+      <c r="H22">
+        <v>-0.1427197949710319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07969723984592222</v>
+        <v>0.07223125895533047</v>
       </c>
       <c r="C23">
-        <v>-0.05790499853084187</v>
+        <v>0.03201727833122576</v>
       </c>
       <c r="D23">
-        <v>-0.1423013020046036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.09992151735143835</v>
+      </c>
+      <c r="E23">
+        <v>-0.6186009693782132</v>
+      </c>
+      <c r="F23">
+        <v>-0.06916227432855625</v>
+      </c>
+      <c r="G23">
+        <v>-0.1317658002334497</v>
+      </c>
+      <c r="H23">
+        <v>-0.1378030987062558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0768248150804506</v>
+        <v>0.0815771359691866</v>
       </c>
       <c r="C24">
-        <v>-0.0494847854471051</v>
+        <v>0.02749172317538844</v>
       </c>
       <c r="D24">
-        <v>-0.06156069061962566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0637271806721622</v>
+      </c>
+      <c r="E24">
+        <v>-0.008621501569190514</v>
+      </c>
+      <c r="F24">
+        <v>0.04187888344252266</v>
+      </c>
+      <c r="G24">
+        <v>0.02638853051770746</v>
+      </c>
+      <c r="H24">
+        <v>0.03591204781535316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07544370301624424</v>
+        <v>0.07992651656111678</v>
       </c>
       <c r="C25">
-        <v>-0.0514790595228205</v>
+        <v>0.03141555867834875</v>
       </c>
       <c r="D25">
-        <v>-0.06456096281346951</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05244697971424349</v>
+      </c>
+      <c r="E25">
+        <v>-0.01548062933451691</v>
+      </c>
+      <c r="F25">
+        <v>0.03623583108782727</v>
+      </c>
+      <c r="G25">
+        <v>0.03782537847991585</v>
+      </c>
+      <c r="H25">
+        <v>0.04322580698049742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04638595834434596</v>
+        <v>0.04586553291934416</v>
       </c>
       <c r="C26">
-        <v>-0.008878709994668303</v>
+        <v>-0.001453994368139026</v>
       </c>
       <c r="D26">
-        <v>-0.01542419553167737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02069959270523409</v>
+      </c>
+      <c r="E26">
+        <v>-0.04209195941101064</v>
+      </c>
+      <c r="F26">
+        <v>0.03960496923617125</v>
+      </c>
+      <c r="G26">
+        <v>0.01039698099587811</v>
+      </c>
+      <c r="H26">
+        <v>0.04827030193780117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05038334518146051</v>
+        <v>0.06999261937844493</v>
       </c>
       <c r="C28">
-        <v>-0.07425724689331437</v>
+        <v>0.1183904280120415</v>
       </c>
       <c r="D28">
-        <v>0.2972112349173416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2940888935143625</v>
+      </c>
+      <c r="E28">
+        <v>-0.03371607818859413</v>
+      </c>
+      <c r="F28">
+        <v>0.06064836405986046</v>
+      </c>
+      <c r="G28">
+        <v>0.02321631345098972</v>
+      </c>
+      <c r="H28">
+        <v>-0.05077119395802682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04562072560717795</v>
+        <v>0.04747603296731326</v>
       </c>
       <c r="C29">
-        <v>-0.02920728411805204</v>
+        <v>0.02107969901803006</v>
       </c>
       <c r="D29">
-        <v>-0.004925860508540488</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01340836217378719</v>
+      </c>
+      <c r="E29">
+        <v>-0.05633046919829118</v>
+      </c>
+      <c r="F29">
+        <v>0.01985160844918366</v>
+      </c>
+      <c r="G29">
+        <v>0.01793930953474438</v>
+      </c>
+      <c r="H29">
+        <v>0.06963132066827933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1291084019873433</v>
+        <v>0.1274871841658381</v>
       </c>
       <c r="C30">
-        <v>-0.08571130635227668</v>
+        <v>0.05288931212841645</v>
       </c>
       <c r="D30">
-        <v>-0.1035772019166801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08129000926365003</v>
+      </c>
+      <c r="E30">
+        <v>-0.06130315611854426</v>
+      </c>
+      <c r="F30">
+        <v>0.02400470458637308</v>
+      </c>
+      <c r="G30">
+        <v>0.07242535171050862</v>
+      </c>
+      <c r="H30">
+        <v>-0.02211390882994144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04855075652529955</v>
+        <v>0.04984131626731516</v>
       </c>
       <c r="C31">
-        <v>-0.02229776260512959</v>
+        <v>0.009855523370908949</v>
       </c>
       <c r="D31">
-        <v>-0.02237877923191534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03297612735734184</v>
+      </c>
+      <c r="E31">
+        <v>-0.02204359201041417</v>
+      </c>
+      <c r="F31">
+        <v>0.008452860488680485</v>
+      </c>
+      <c r="G31">
+        <v>-0.006011667876092867</v>
+      </c>
+      <c r="H31">
+        <v>0.06888299058442757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03626438702027042</v>
+        <v>0.03919891477253727</v>
       </c>
       <c r="C32">
-        <v>-0.02417297091741727</v>
+        <v>0.02284204753249145</v>
       </c>
       <c r="D32">
-        <v>-0.02585117608955268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01108727270442141</v>
+      </c>
+      <c r="E32">
+        <v>-0.05695554913112472</v>
+      </c>
+      <c r="F32">
+        <v>-0.003292704995491174</v>
+      </c>
+      <c r="G32">
+        <v>0.038489530796936</v>
+      </c>
+      <c r="H32">
+        <v>0.03633690636369353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08647967448311011</v>
+        <v>0.09497565032073152</v>
       </c>
       <c r="C33">
-        <v>-0.03878790973777462</v>
+        <v>0.0190222046688484</v>
       </c>
       <c r="D33">
-        <v>-0.05404784806804724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04860107826432165</v>
+      </c>
+      <c r="E33">
+        <v>-0.01147873844631026</v>
+      </c>
+      <c r="F33">
+        <v>0.01190909447399495</v>
+      </c>
+      <c r="G33">
+        <v>0.01151276829825541</v>
+      </c>
+      <c r="H33">
+        <v>0.06424538691025025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0597532141103173</v>
+        <v>0.06455304160183463</v>
       </c>
       <c r="C34">
-        <v>-0.02326092844049651</v>
+        <v>0.006514394059014952</v>
       </c>
       <c r="D34">
-        <v>-0.05289969788586927</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04938387531801996</v>
+      </c>
+      <c r="E34">
+        <v>-0.00544571727447651</v>
+      </c>
+      <c r="F34">
+        <v>0.02447098270018468</v>
+      </c>
+      <c r="G34">
+        <v>0.0174445779104388</v>
+      </c>
+      <c r="H34">
+        <v>0.05039732897028616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03763088484507271</v>
+        <v>0.03901346506934755</v>
       </c>
       <c r="C35">
-        <v>-0.007380865587890682</v>
+        <v>0.001273281750725042</v>
       </c>
       <c r="D35">
-        <v>-0.01626054822821155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01341094807728549</v>
+      </c>
+      <c r="E35">
+        <v>-0.02076008593930387</v>
+      </c>
+      <c r="F35">
+        <v>-0.01510660394755614</v>
+      </c>
+      <c r="G35">
+        <v>-0.0008211028228303857</v>
+      </c>
+      <c r="H35">
+        <v>0.02496872274113528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02493726778374067</v>
+        <v>0.02959750998807082</v>
       </c>
       <c r="C36">
-        <v>-0.01777870602341157</v>
+        <v>0.01353886011135231</v>
       </c>
       <c r="D36">
-        <v>-0.02123532909930145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01707441329012441</v>
+      </c>
+      <c r="E36">
+        <v>-0.02652499075695617</v>
+      </c>
+      <c r="F36">
+        <v>0.02939210657741423</v>
+      </c>
+      <c r="G36">
+        <v>0.003553384045169829</v>
+      </c>
+      <c r="H36">
+        <v>0.04275893977572793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04317569363862261</v>
+        <v>0.04524291302600626</v>
       </c>
       <c r="C38">
-        <v>-0.002121324499508805</v>
+        <v>-0.004949260887403781</v>
       </c>
       <c r="D38">
-        <v>-0.02118688190767142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02082104343482719</v>
+      </c>
+      <c r="E38">
+        <v>-0.05250608715818541</v>
+      </c>
+      <c r="F38">
+        <v>-0.0001447897051326844</v>
+      </c>
+      <c r="G38">
+        <v>0.009790240746559551</v>
+      </c>
+      <c r="H38">
+        <v>0.02444712798321236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0907718307873107</v>
+        <v>0.09934594460733619</v>
       </c>
       <c r="C39">
-        <v>-0.06583139912455341</v>
+        <v>0.04227231453994389</v>
       </c>
       <c r="D39">
-        <v>-0.06177885290157205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07078061273420878</v>
+      </c>
+      <c r="E39">
+        <v>-0.0007353978373176739</v>
+      </c>
+      <c r="F39">
+        <v>0.001527325736297646</v>
+      </c>
+      <c r="G39">
+        <v>0.04754299642563704</v>
+      </c>
+      <c r="H39">
+        <v>0.03317998981230767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08053909571858246</v>
+        <v>0.0631607024264729</v>
       </c>
       <c r="C40">
-        <v>-0.03378813572256897</v>
+        <v>0.003640715250382573</v>
       </c>
       <c r="D40">
-        <v>-0.01095268817573794</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03271954769354216</v>
+      </c>
+      <c r="E40">
+        <v>-0.03691192096760045</v>
+      </c>
+      <c r="F40">
+        <v>-0.04113559596505926</v>
+      </c>
+      <c r="G40">
+        <v>0.02667840517378302</v>
+      </c>
+      <c r="H40">
+        <v>-0.08461385307321787</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04503328466362696</v>
+        <v>0.04641886190388484</v>
       </c>
       <c r="C41">
-        <v>-0.004384980330505467</v>
+        <v>-0.006716476347496906</v>
       </c>
       <c r="D41">
-        <v>-0.03558431325734471</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03139231766959565</v>
+      </c>
+      <c r="E41">
+        <v>-0.002997783238400502</v>
+      </c>
+      <c r="F41">
+        <v>-0.012809747455064</v>
+      </c>
+      <c r="G41">
+        <v>0.01551784023126089</v>
+      </c>
+      <c r="H41">
+        <v>0.02131938691465621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05428685185594569</v>
+        <v>0.06087919586099082</v>
       </c>
       <c r="C43">
-        <v>-0.02476592747140643</v>
+        <v>0.01390126948636954</v>
       </c>
       <c r="D43">
-        <v>-0.01420902581073654</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0281740478345298</v>
+      </c>
+      <c r="E43">
+        <v>-0.0202921994184182</v>
+      </c>
+      <c r="F43">
+        <v>0.01783774360842295</v>
+      </c>
+      <c r="G43">
+        <v>-0.007072541377766574</v>
+      </c>
+      <c r="H43">
+        <v>0.0603264039327106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09597067243846051</v>
+        <v>0.09405107736751747</v>
       </c>
       <c r="C44">
-        <v>-0.08049845815550415</v>
+        <v>0.05118645863077149</v>
       </c>
       <c r="D44">
-        <v>-0.07893092355830622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07159120097400176</v>
+      </c>
+      <c r="E44">
+        <v>-0.05858150667766626</v>
+      </c>
+      <c r="F44">
+        <v>0.0962185879281021</v>
+      </c>
+      <c r="G44">
+        <v>0.04188658010911356</v>
+      </c>
+      <c r="H44">
+        <v>0.08388284652382771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02785020908150499</v>
+        <v>0.03539651559593173</v>
       </c>
       <c r="C46">
-        <v>-0.01465263431845006</v>
+        <v>0.008426714777276585</v>
       </c>
       <c r="D46">
-        <v>-0.03218792551744412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03698710599950213</v>
+      </c>
+      <c r="E46">
+        <v>-0.03184386672126984</v>
+      </c>
+      <c r="F46">
+        <v>0.01551080840859522</v>
+      </c>
+      <c r="G46">
+        <v>0.007877821632594631</v>
+      </c>
+      <c r="H46">
+        <v>0.02079497286955299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03561516066455319</v>
+        <v>0.04161191862778538</v>
       </c>
       <c r="C47">
-        <v>-0.02352950339559083</v>
+        <v>0.01829696657317525</v>
       </c>
       <c r="D47">
-        <v>-0.0005544476038981546</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007252584715275996</v>
+      </c>
+      <c r="E47">
+        <v>-0.0397454382339638</v>
+      </c>
+      <c r="F47">
+        <v>-0.008640481091896567</v>
+      </c>
+      <c r="G47">
+        <v>-0.02419954215097593</v>
+      </c>
+      <c r="H47">
+        <v>0.02852261937266422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03653993199875923</v>
+        <v>0.03969999653432607</v>
       </c>
       <c r="C48">
-        <v>-0.01839371049698533</v>
+        <v>0.01018606216900486</v>
       </c>
       <c r="D48">
-        <v>-0.03206883976344713</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02056913025580373</v>
+      </c>
+      <c r="E48">
+        <v>-0.0375765260991691</v>
+      </c>
+      <c r="F48">
+        <v>0.01374893652963227</v>
+      </c>
+      <c r="G48">
+        <v>0.02277301146736838</v>
+      </c>
+      <c r="H48">
+        <v>0.02660697326638795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1640222176925096</v>
+        <v>0.1979531797250675</v>
       </c>
       <c r="C49">
-        <v>-0.04639157576774301</v>
+        <v>0.02875418709480935</v>
       </c>
       <c r="D49">
-        <v>-0.005465907073920675</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02739444407693069</v>
+      </c>
+      <c r="E49">
+        <v>0.1645794003803739</v>
+      </c>
+      <c r="F49">
+        <v>0.03258421859120535</v>
+      </c>
+      <c r="G49">
+        <v>-0.1386648631779476</v>
+      </c>
+      <c r="H49">
+        <v>-0.2575648222358063</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04317500311104915</v>
+        <v>0.0461195440878789</v>
       </c>
       <c r="C50">
-        <v>-0.01997374909833942</v>
+        <v>0.009305295317465169</v>
       </c>
       <c r="D50">
-        <v>-0.04230350719352262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03936103595580209</v>
+      </c>
+      <c r="E50">
+        <v>-0.03436676478015852</v>
+      </c>
+      <c r="F50">
+        <v>0.01005842841014443</v>
+      </c>
+      <c r="G50">
+        <v>0.001852447142536909</v>
+      </c>
+      <c r="H50">
+        <v>0.07654737581023464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03001306902420371</v>
+        <v>0.03485283446174798</v>
       </c>
       <c r="C51">
-        <v>-0.01039180620661695</v>
+        <v>0.006055730591704851</v>
       </c>
       <c r="D51">
-        <v>-6.466316741420721e-06</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001657806081746246</v>
+      </c>
+      <c r="E51">
+        <v>-0.006889123163716245</v>
+      </c>
+      <c r="F51">
+        <v>0.01026861196932001</v>
+      </c>
+      <c r="G51">
+        <v>-0.01333475568772326</v>
+      </c>
+      <c r="H51">
+        <v>-0.01762961184399668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1562759341208937</v>
+        <v>0.1604735876081726</v>
       </c>
       <c r="C53">
-        <v>-0.07039479947804354</v>
+        <v>0.04260727666148321</v>
       </c>
       <c r="D53">
-        <v>-0.001569055182603111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02812399750070288</v>
+      </c>
+      <c r="E53">
+        <v>0.03682575080502257</v>
+      </c>
+      <c r="F53">
+        <v>-0.0001280243178875423</v>
+      </c>
+      <c r="G53">
+        <v>0.0147050593788332</v>
+      </c>
+      <c r="H53">
+        <v>0.1991128578846687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05713198157959794</v>
+        <v>0.05850212709943715</v>
       </c>
       <c r="C54">
-        <v>-0.01989994518715158</v>
+        <v>0.0107511691538284</v>
       </c>
       <c r="D54">
-        <v>-0.01631342399824646</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01377981990785724</v>
+      </c>
+      <c r="E54">
+        <v>-0.04963095672699921</v>
+      </c>
+      <c r="F54">
+        <v>0.01942461124388701</v>
+      </c>
+      <c r="G54">
+        <v>0.04746230813010543</v>
+      </c>
+      <c r="H54">
+        <v>0.03793053874529017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1026846361026083</v>
+        <v>0.1041508080697993</v>
       </c>
       <c r="C55">
-        <v>-0.04948844677558141</v>
+        <v>0.02924146477906944</v>
       </c>
       <c r="D55">
-        <v>-0.02139632837447148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03100331146216133</v>
+      </c>
+      <c r="E55">
+        <v>0.000761224705925261</v>
+      </c>
+      <c r="F55">
+        <v>0.01172053302593533</v>
+      </c>
+      <c r="G55">
+        <v>0.02194034371236913</v>
+      </c>
+      <c r="H55">
+        <v>0.156368836209782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1529306615142742</v>
+        <v>0.1586100707065512</v>
       </c>
       <c r="C56">
-        <v>-0.08071132892532756</v>
+        <v>0.04939912866310795</v>
       </c>
       <c r="D56">
-        <v>-0.005503521319648376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04087162074002637</v>
+      </c>
+      <c r="E56">
+        <v>0.02041608109084438</v>
+      </c>
+      <c r="F56">
+        <v>0.01986050502182056</v>
+      </c>
+      <c r="G56">
+        <v>0.012715145849813</v>
+      </c>
+      <c r="H56">
+        <v>0.1979081107570353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1319338682222179</v>
+        <v>0.1000041705127001</v>
       </c>
       <c r="C58">
-        <v>0.009203207588039036</v>
+        <v>-0.05060419024942193</v>
       </c>
       <c r="D58">
-        <v>-0.03839070156920035</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03066890740834877</v>
+      </c>
+      <c r="E58">
+        <v>-0.1326629544695601</v>
+      </c>
+      <c r="F58">
+        <v>0.01155476307817268</v>
+      </c>
+      <c r="G58">
+        <v>-0.08711734356492581</v>
+      </c>
+      <c r="H58">
+        <v>-0.1461404006259669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1251143841120036</v>
+        <v>0.1469904683712405</v>
       </c>
       <c r="C59">
-        <v>-0.082145881540792</v>
+        <v>0.1236213644748242</v>
       </c>
       <c r="D59">
-        <v>0.3874077649745289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3508190551218545</v>
+      </c>
+      <c r="E59">
+        <v>-0.03018108509779008</v>
+      </c>
+      <c r="F59">
+        <v>0.003376962325628001</v>
+      </c>
+      <c r="G59">
+        <v>-0.009487877049816254</v>
+      </c>
+      <c r="H59">
+        <v>0.008876060417259314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2102799616382721</v>
+        <v>0.2386547373203112</v>
       </c>
       <c r="C60">
-        <v>-0.08684499067648278</v>
+        <v>0.05351609443926563</v>
       </c>
       <c r="D60">
-        <v>-0.01713207888054082</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04808995076019722</v>
+      </c>
+      <c r="E60">
+        <v>0.113590316516919</v>
+      </c>
+      <c r="F60">
+        <v>0.04385655035294735</v>
+      </c>
+      <c r="G60">
+        <v>-0.022087777211138</v>
+      </c>
+      <c r="H60">
+        <v>-0.1494085138137256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08198947844911647</v>
+        <v>0.08769553918618485</v>
       </c>
       <c r="C61">
-        <v>-0.04462753594208532</v>
+        <v>0.02725504015504311</v>
       </c>
       <c r="D61">
-        <v>-0.03502906129278815</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04349989620221811</v>
+      </c>
+      <c r="E61">
+        <v>-0.001974125302867898</v>
+      </c>
+      <c r="F61">
+        <v>0.006652704304116101</v>
+      </c>
+      <c r="G61">
+        <v>0.02075112477947691</v>
+      </c>
+      <c r="H61">
+        <v>0.06253887851531995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1328823267734703</v>
+        <v>0.1358004813173694</v>
       </c>
       <c r="C62">
-        <v>-0.0538801089150859</v>
+        <v>0.02416091225811695</v>
       </c>
       <c r="D62">
-        <v>-0.01186444313882306</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04590521400361807</v>
+      </c>
+      <c r="E62">
+        <v>0.05469428692965254</v>
+      </c>
+      <c r="F62">
+        <v>-0.007731862234824637</v>
+      </c>
+      <c r="G62">
+        <v>0.06137345663662838</v>
+      </c>
+      <c r="H62">
+        <v>0.1997891361569103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0529843808885023</v>
+        <v>0.05250597148463906</v>
       </c>
       <c r="C63">
-        <v>-0.02225925525236628</v>
+        <v>0.01250398447054035</v>
       </c>
       <c r="D63">
-        <v>-0.02709761060193084</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02075466988841209</v>
+      </c>
+      <c r="E63">
+        <v>-0.04375882970583372</v>
+      </c>
+      <c r="F63">
+        <v>0.003985582564036228</v>
+      </c>
+      <c r="G63">
+        <v>0.02844483059123012</v>
+      </c>
+      <c r="H63">
+        <v>0.03667594004342677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.104989528658157</v>
+        <v>0.1084916905718506</v>
       </c>
       <c r="C64">
-        <v>-0.02697677041412789</v>
+        <v>0.01020960543393247</v>
       </c>
       <c r="D64">
-        <v>-0.03290225051972979</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.029897606570006</v>
+      </c>
+      <c r="E64">
+        <v>-0.03177088695699995</v>
+      </c>
+      <c r="F64">
+        <v>0.04358771917970653</v>
+      </c>
+      <c r="G64">
+        <v>0.05854038944943241</v>
+      </c>
+      <c r="H64">
+        <v>0.02236570431043798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1294849734982347</v>
+        <v>0.1295473087849965</v>
       </c>
       <c r="C65">
-        <v>-0.05452698308335605</v>
+        <v>0.03673422063545728</v>
       </c>
       <c r="D65">
-        <v>-0.01404152919326934</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01475074367235645</v>
+      </c>
+      <c r="E65">
+        <v>0.00928512796336216</v>
+      </c>
+      <c r="F65">
+        <v>0.05348386761627286</v>
+      </c>
+      <c r="G65">
+        <v>0.06240936911443213</v>
+      </c>
+      <c r="H65">
+        <v>-0.1210742126773975</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.149185283042678</v>
+        <v>0.1517363553101088</v>
       </c>
       <c r="C66">
-        <v>-0.06462073872552702</v>
+        <v>0.02845593282379752</v>
       </c>
       <c r="D66">
-        <v>-0.1012722800045232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1031411755260131</v>
+      </c>
+      <c r="E66">
+        <v>0.02755167315783792</v>
+      </c>
+      <c r="F66">
+        <v>0.001684788007017754</v>
+      </c>
+      <c r="G66">
+        <v>0.06393540551942285</v>
+      </c>
+      <c r="H66">
+        <v>0.09300132513381101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07634941072946105</v>
+        <v>0.08603625550696296</v>
       </c>
       <c r="C67">
-        <v>-0.007962829766740297</v>
+        <v>-0.002956748707969802</v>
       </c>
       <c r="D67">
-        <v>-0.02410014342035962</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03145839491117035</v>
+      </c>
+      <c r="E67">
+        <v>-0.02131746129407518</v>
+      </c>
+      <c r="F67">
+        <v>0.01792195465669102</v>
+      </c>
+      <c r="G67">
+        <v>-0.008414693710279206</v>
+      </c>
+      <c r="H67">
+        <v>0.02338175320570919</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05822647904365349</v>
+        <v>0.06432717302093734</v>
       </c>
       <c r="C68">
-        <v>-0.0535722863963161</v>
+        <v>0.090290149159756</v>
       </c>
       <c r="D68">
-        <v>0.2565064782392668</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2612085779963866</v>
+      </c>
+      <c r="E68">
+        <v>-0.04194501818893493</v>
+      </c>
+      <c r="F68">
+        <v>0.01697882912523359</v>
+      </c>
+      <c r="G68">
+        <v>-0.005114235804490747</v>
+      </c>
+      <c r="H68">
+        <v>0.01814831695276703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05411571535550175</v>
+        <v>0.05317534726798021</v>
       </c>
       <c r="C69">
-        <v>-0.01488622301212787</v>
+        <v>0.002481060046159012</v>
       </c>
       <c r="D69">
-        <v>-0.02593937972745434</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01946086833687459</v>
+      </c>
+      <c r="E69">
+        <v>-0.02380809147928055</v>
+      </c>
+      <c r="F69">
+        <v>-0.01215391257586976</v>
+      </c>
+      <c r="G69">
+        <v>-0.0008074354783228382</v>
+      </c>
+      <c r="H69">
+        <v>0.04870939192367534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002946914005944121</v>
+        <v>0.02791921561494343</v>
       </c>
       <c r="C70">
-        <v>0.005727428318201912</v>
+        <v>-0.001006713477188278</v>
       </c>
       <c r="D70">
-        <v>0.01144327174432507</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.007553937357369343</v>
+      </c>
+      <c r="E70">
+        <v>0.02012652882939432</v>
+      </c>
+      <c r="F70">
+        <v>0.003324559560584496</v>
+      </c>
+      <c r="G70">
+        <v>-0.02654310717344901</v>
+      </c>
+      <c r="H70">
+        <v>-0.03340485079228049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05782860877435202</v>
+        <v>0.06956634428954839</v>
       </c>
       <c r="C71">
-        <v>-0.05344431465557289</v>
+        <v>0.09909757398922449</v>
       </c>
       <c r="D71">
-        <v>0.2932914877566562</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2891551477576093</v>
+      </c>
+      <c r="E71">
+        <v>-0.03873261918814569</v>
+      </c>
+      <c r="F71">
+        <v>0.04692820651595837</v>
+      </c>
+      <c r="G71">
+        <v>0.0005462787946069742</v>
+      </c>
+      <c r="H71">
+        <v>0.01054148412419421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1428873556834672</v>
+        <v>0.1444842308669727</v>
       </c>
       <c r="C72">
-        <v>-0.05606908670955277</v>
+        <v>0.02979369989934747</v>
       </c>
       <c r="D72">
-        <v>-0.0005349749029724992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003213973842817651</v>
+      </c>
+      <c r="E72">
+        <v>0.05894656098811387</v>
+      </c>
+      <c r="F72">
+        <v>-0.1582845981151398</v>
+      </c>
+      <c r="G72">
+        <v>0.1173838371243553</v>
+      </c>
+      <c r="H72">
+        <v>-0.009653761951285636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2885965314563895</v>
+        <v>0.2882569102078603</v>
       </c>
       <c r="C73">
-        <v>-0.08751961795108064</v>
+        <v>0.01741817449401286</v>
       </c>
       <c r="D73">
-        <v>-0.04335245945009483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09955377814570399</v>
+      </c>
+      <c r="E73">
+        <v>0.2424362574383565</v>
+      </c>
+      <c r="F73">
+        <v>0.04989471304238559</v>
+      </c>
+      <c r="G73">
+        <v>-0.2531667134199423</v>
+      </c>
+      <c r="H73">
+        <v>-0.4261444544047451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08503098015345065</v>
+        <v>0.09284341563225348</v>
       </c>
       <c r="C74">
-        <v>-0.07343572854649114</v>
+        <v>0.05321321581605452</v>
       </c>
       <c r="D74">
-        <v>-0.009682922078616985</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0401355568095736</v>
+      </c>
+      <c r="E74">
+        <v>0.008258647190867845</v>
+      </c>
+      <c r="F74">
+        <v>-0.003690305720462874</v>
+      </c>
+      <c r="G74">
+        <v>-0.02335849382237431</v>
+      </c>
+      <c r="H74">
+        <v>0.1279244836629368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1008972084556607</v>
+        <v>0.1034727980384118</v>
       </c>
       <c r="C75">
-        <v>-0.04622749301644993</v>
+        <v>0.02059363105071044</v>
       </c>
       <c r="D75">
-        <v>-0.01225899108489032</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02582382174591908</v>
+      </c>
+      <c r="E75">
+        <v>0.002981259780782185</v>
+      </c>
+      <c r="F75">
+        <v>0.001397314131425529</v>
+      </c>
+      <c r="G75">
+        <v>-0.002181232632340192</v>
+      </c>
+      <c r="H75">
+        <v>0.102322353594208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.13513794494751</v>
+        <v>0.1432432233548265</v>
       </c>
       <c r="C76">
-        <v>-0.07603354983594356</v>
+        <v>0.04854725463251824</v>
       </c>
       <c r="D76">
-        <v>-0.02767949571920044</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05351223263802232</v>
+      </c>
+      <c r="E76">
+        <v>-0.008703807170025977</v>
+      </c>
+      <c r="F76">
+        <v>0.03485902374527755</v>
+      </c>
+      <c r="G76">
+        <v>0.02097810141148075</v>
+      </c>
+      <c r="H76">
+        <v>0.2174558569266167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.115664159292246</v>
+        <v>0.101445812529111</v>
       </c>
       <c r="C77">
-        <v>-0.005901947960140391</v>
+        <v>-0.02503387931039402</v>
       </c>
       <c r="D77">
-        <v>-0.09301970077084852</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04032932898586949</v>
+      </c>
+      <c r="E77">
+        <v>-0.03549956232399543</v>
+      </c>
+      <c r="F77">
+        <v>0.1045788735958078</v>
+      </c>
+      <c r="G77">
+        <v>0.8220736446782008</v>
+      </c>
+      <c r="H77">
+        <v>-0.3316373007414036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1072555673439369</v>
+        <v>0.1514617073633799</v>
       </c>
       <c r="C78">
-        <v>-0.0341792652805431</v>
+        <v>0.02772550504414132</v>
       </c>
       <c r="D78">
-        <v>-0.09253080658951827</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08072536544566004</v>
+      </c>
+      <c r="E78">
+        <v>-0.04737347270150539</v>
+      </c>
+      <c r="F78">
+        <v>0.05739183273537109</v>
+      </c>
+      <c r="G78">
+        <v>0.0550989296373819</v>
+      </c>
+      <c r="H78">
+        <v>-0.06756733357758504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1490172605557425</v>
+        <v>0.1481117365803101</v>
       </c>
       <c r="C79">
-        <v>-0.06438127546206747</v>
+        <v>0.03026005291758526</v>
       </c>
       <c r="D79">
-        <v>-0.02243173141939513</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0401978700699082</v>
+      </c>
+      <c r="E79">
+        <v>0.02115550900438911</v>
+      </c>
+      <c r="F79">
+        <v>0.01666165018085873</v>
+      </c>
+      <c r="G79">
+        <v>0.01340920419191212</v>
+      </c>
+      <c r="H79">
+        <v>0.158579286476804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04108351441055292</v>
+        <v>0.0412806969051356</v>
       </c>
       <c r="C80">
-        <v>-0.01826659123450475</v>
+        <v>0.01027063458552044</v>
       </c>
       <c r="D80">
-        <v>-0.03179020706492404</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01717781351849521</v>
+      </c>
+      <c r="E80">
+        <v>0.03697747891320952</v>
+      </c>
+      <c r="F80">
+        <v>0.002155596742000331</v>
+      </c>
+      <c r="G80">
+        <v>-0.01984128895069995</v>
+      </c>
+      <c r="H80">
+        <v>0.04202058600873364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1233047298457439</v>
+        <v>0.1247617082143356</v>
       </c>
       <c r="C81">
-        <v>-0.05558662631274372</v>
+        <v>0.03010267071453446</v>
       </c>
       <c r="D81">
-        <v>-0.02887499258338228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03070036925026134</v>
+      </c>
+      <c r="E81">
+        <v>-0.008716568583397919</v>
+      </c>
+      <c r="F81">
+        <v>0.006217338312656986</v>
+      </c>
+      <c r="G81">
+        <v>-0.0196497389128108</v>
+      </c>
+      <c r="H81">
+        <v>0.1446553549220419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1339363562608925</v>
+        <v>0.1308488843249167</v>
       </c>
       <c r="C82">
-        <v>-0.06857456951956213</v>
+        <v>0.03994464931870931</v>
       </c>
       <c r="D82">
-        <v>-0.006070278612808603</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03856564846305761</v>
+      </c>
+      <c r="E82">
+        <v>0.02471199562947858</v>
+      </c>
+      <c r="F82">
+        <v>0.04024552853669385</v>
+      </c>
+      <c r="G82">
+        <v>-0.006259016518467861</v>
+      </c>
+      <c r="H82">
+        <v>0.2219181037108073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06803549422028383</v>
+        <v>0.08210451966986282</v>
       </c>
       <c r="C83">
-        <v>0.03056004202269842</v>
+        <v>-0.04146600787311136</v>
       </c>
       <c r="D83">
-        <v>-0.01630156126471437</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01920015283043416</v>
+      </c>
+      <c r="E83">
+        <v>-0.02060147146515551</v>
+      </c>
+      <c r="F83">
+        <v>0.04651400208730956</v>
+      </c>
+      <c r="G83">
+        <v>-0.06910104438682918</v>
+      </c>
+      <c r="H83">
+        <v>-0.01917167349457848</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02810659836555601</v>
+        <v>0.03602425816769533</v>
       </c>
       <c r="C84">
-        <v>-0.02981468153920269</v>
+        <v>0.02002131686004064</v>
       </c>
       <c r="D84">
-        <v>-0.03203121803821811</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03665184854626357</v>
+      </c>
+      <c r="E84">
+        <v>-0.01887715753712864</v>
+      </c>
+      <c r="F84">
+        <v>-0.04210487833722683</v>
+      </c>
+      <c r="G84">
+        <v>-0.04850175375204284</v>
+      </c>
+      <c r="H84">
+        <v>0.03125225988354102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1182964746432268</v>
+        <v>0.1215850368468075</v>
       </c>
       <c r="C85">
-        <v>-0.03844925480874389</v>
+        <v>0.01503072890843603</v>
       </c>
       <c r="D85">
-        <v>-0.04977785471196503</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03818309132021178</v>
+      </c>
+      <c r="E85">
+        <v>-0.01439384549803712</v>
+      </c>
+      <c r="F85">
+        <v>0.03181366790647944</v>
+      </c>
+      <c r="G85">
+        <v>-0.00587972322674889</v>
+      </c>
+      <c r="H85">
+        <v>0.1420737272854665</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05413749280060566</v>
+        <v>0.05751540749952065</v>
       </c>
       <c r="C86">
-        <v>-0.0209091329405506</v>
+        <v>0.007433497366534344</v>
       </c>
       <c r="D86">
-        <v>-0.06358433729552472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03430796943663714</v>
+      </c>
+      <c r="E86">
+        <v>-0.0424023085206755</v>
+      </c>
+      <c r="F86">
+        <v>0.03577928065631072</v>
+      </c>
+      <c r="G86">
+        <v>-0.03886077481307395</v>
+      </c>
+      <c r="H86">
+        <v>-0.03169850776874892</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1227916862981364</v>
+        <v>0.1250257669927806</v>
       </c>
       <c r="C87">
-        <v>-0.06613517288880916</v>
+        <v>0.03007643863896128</v>
       </c>
       <c r="D87">
-        <v>-0.07241964751049008</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.070967469805888</v>
+      </c>
+      <c r="E87">
+        <v>-0.01818831454196881</v>
+      </c>
+      <c r="F87">
+        <v>0.01971693908458711</v>
+      </c>
+      <c r="G87">
+        <v>0.1288328337312353</v>
+      </c>
+      <c r="H87">
+        <v>-0.07072177814222061</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05386147450693232</v>
+        <v>0.06240677583778639</v>
       </c>
       <c r="C88">
-        <v>-0.02707792280931251</v>
+        <v>0.01599606151294534</v>
       </c>
       <c r="D88">
-        <v>-0.0265893791959053</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03889797481158759</v>
+      </c>
+      <c r="E88">
+        <v>-0.008269211017358611</v>
+      </c>
+      <c r="F88">
+        <v>0.01705659138615247</v>
+      </c>
+      <c r="G88">
+        <v>0.01721196300584168</v>
+      </c>
+      <c r="H88">
+        <v>0.03839615649039707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08885073548894029</v>
+        <v>0.1075656930911191</v>
       </c>
       <c r="C89">
-        <v>-0.07716366007144372</v>
+        <v>0.1267728897313741</v>
       </c>
       <c r="D89">
-        <v>0.3273290443430266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3367422000238515</v>
+      </c>
+      <c r="E89">
+        <v>-0.06060558578466856</v>
+      </c>
+      <c r="F89">
+        <v>0.07319318569114729</v>
+      </c>
+      <c r="G89">
+        <v>-0.02300900349360635</v>
+      </c>
+      <c r="H89">
+        <v>0.01134451546122543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06999199187146492</v>
+        <v>0.08422611718777134</v>
       </c>
       <c r="C90">
-        <v>-0.06356712089523048</v>
+        <v>0.1039887680549543</v>
       </c>
       <c r="D90">
-        <v>0.2798572779773237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2776726798461231</v>
+      </c>
+      <c r="E90">
+        <v>-0.04891506083347025</v>
+      </c>
+      <c r="F90">
+        <v>0.03936367021296125</v>
+      </c>
+      <c r="G90">
+        <v>0.02113196319882637</v>
+      </c>
+      <c r="H90">
+        <v>-0.002095588562649779</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09038174652182875</v>
+        <v>0.09137253156732356</v>
       </c>
       <c r="C91">
-        <v>-0.04852521602654723</v>
+        <v>0.02521824033355187</v>
       </c>
       <c r="D91">
-        <v>-0.01917112621913291</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03375521163699709</v>
+      </c>
+      <c r="E91">
+        <v>-0.007131980136286841</v>
+      </c>
+      <c r="F91">
+        <v>-0.001749563957950116</v>
+      </c>
+      <c r="G91">
+        <v>-0.02140401467597576</v>
+      </c>
+      <c r="H91">
+        <v>0.09088995018578168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07533559443120258</v>
+        <v>0.08769924511211606</v>
       </c>
       <c r="C92">
-        <v>-0.07886552998053493</v>
+        <v>0.1262815694784057</v>
       </c>
       <c r="D92">
-        <v>0.3408958883263791</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3310435488020572</v>
+      </c>
+      <c r="E92">
+        <v>-0.04080964498094529</v>
+      </c>
+      <c r="F92">
+        <v>0.04028323516016463</v>
+      </c>
+      <c r="G92">
+        <v>0.01261797085186927</v>
+      </c>
+      <c r="H92">
+        <v>0.01654952251765203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0657512333655406</v>
+        <v>0.08200438189259918</v>
       </c>
       <c r="C93">
-        <v>-0.06888653881402169</v>
+        <v>0.1157489623439118</v>
       </c>
       <c r="D93">
-        <v>0.3000862225580324</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2931540616352948</v>
+      </c>
+      <c r="E93">
+        <v>-0.02252693872203469</v>
+      </c>
+      <c r="F93">
+        <v>0.03402044549406928</v>
+      </c>
+      <c r="G93">
+        <v>0.01881562959159568</v>
+      </c>
+      <c r="H93">
+        <v>0.006968633948635864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1357937613559032</v>
+        <v>0.129555231701074</v>
       </c>
       <c r="C94">
-        <v>-0.04183386835406411</v>
+        <v>0.007821448661629026</v>
       </c>
       <c r="D94">
-        <v>-0.04039025630781732</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04966880566781214</v>
+      </c>
+      <c r="E94">
+        <v>0.01875037264041705</v>
+      </c>
+      <c r="F94">
+        <v>0.01086458620078465</v>
+      </c>
+      <c r="G94">
+        <v>-0.04418354088575781</v>
+      </c>
+      <c r="H94">
+        <v>0.1159170332506636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1212248346110975</v>
+        <v>0.1294340062992903</v>
       </c>
       <c r="C95">
-        <v>-0.01649462332479719</v>
+        <v>-0.009494286675388413</v>
       </c>
       <c r="D95">
-        <v>-0.05945274591683269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06030100162061473</v>
+      </c>
+      <c r="E95">
+        <v>-0.01080950212352467</v>
+      </c>
+      <c r="F95">
+        <v>0.0519513595970101</v>
+      </c>
+      <c r="G95">
+        <v>0.01803421556309975</v>
+      </c>
+      <c r="H95">
+        <v>-0.08610454703967756</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2194376207761528</v>
+        <v>0.1973225204914262</v>
       </c>
       <c r="C97">
-        <v>-0.03865374767548085</v>
+        <v>-0.005253284658506003</v>
       </c>
       <c r="D97">
-        <v>0.09121380787810253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07126357963715405</v>
+      </c>
+      <c r="E97">
+        <v>0.06228589988607242</v>
+      </c>
+      <c r="F97">
+        <v>-0.9288661453066129</v>
+      </c>
+      <c r="G97">
+        <v>0.08971857617716984</v>
+      </c>
+      <c r="H97">
+        <v>-0.01644145798607925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2450954422556981</v>
+        <v>0.2733203193800016</v>
       </c>
       <c r="C98">
-        <v>-0.0498135569552767</v>
+        <v>0.008980858443336496</v>
       </c>
       <c r="D98">
-        <v>-0.01756084434548391</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04725964195998732</v>
+      </c>
+      <c r="E98">
+        <v>0.1852370938011579</v>
+      </c>
+      <c r="F98">
+        <v>0.0396726003205058</v>
+      </c>
+      <c r="G98">
+        <v>-0.3041746712217672</v>
+      </c>
+      <c r="H98">
+        <v>-0.1998346204960595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3875648938814218</v>
+        <v>0.2525362217745774</v>
       </c>
       <c r="C99">
-        <v>0.9013683335692045</v>
+        <v>-0.916798862092476</v>
       </c>
       <c r="D99">
-        <v>0.0777241347750674</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2437589916303409</v>
+      </c>
+      <c r="E99">
+        <v>-0.07052318117270125</v>
+      </c>
+      <c r="F99">
+        <v>0.06972502248085898</v>
+      </c>
+      <c r="G99">
+        <v>-0.00167017399844575</v>
+      </c>
+      <c r="H99">
+        <v>0.07721970488512668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04542865078861737</v>
+        <v>0.04740430630739537</v>
       </c>
       <c r="C101">
-        <v>-0.02932213961381496</v>
+        <v>0.02130553550664764</v>
       </c>
       <c r="D101">
-        <v>-0.005705833650907108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01368561214661413</v>
+      </c>
+      <c r="E101">
+        <v>-0.05630672588236584</v>
+      </c>
+      <c r="F101">
+        <v>0.01941661394318639</v>
+      </c>
+      <c r="G101">
+        <v>0.01703229039481381</v>
+      </c>
+      <c r="H101">
+        <v>0.06872005566000948</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
